--- a/medicine/Psychotrope/Victor_Rendu/Victor_Rendu.xlsx
+++ b/medicine/Psychotrope/Victor_Rendu/Victor_Rendu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Marie Victor Rendu est un ampélographe français, né à Maisons-Alfort le 3 mai 1809[1] et mort à Paris VIe le 11 juin 1877[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Marie Victor Rendu est un ampélographe français, né à Maisons-Alfort le 3 mai 1809 et mort à Paris VIe le 11 juin 1877.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit-fils, par sa mère, de l'agronome Victor Yvart (1764-1831), membre de l'Institut, et neveu d'Ambroise Rendu, l'un des organisateurs de l'Université sous l'Empire, Victor Rendu était inspecteur général de l'agriculture.
 Il écrivit de nombreux ouvrages de vulgarisation, dont certains en collaboration avec son cousin germain Ambroise Rendu (1820-1864), avocat au Conseil d'État et à la Cour de cassation. Son ouvrage, désormais de référence, sur l'ampélographie est le résultat de quinze années d'inspection, de l'étude sur les lieux même des vignobles les plus renommés.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agriculture du département du Nord. in 8°.
 Agriculture du département du Tarn. In 8°.
